--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2364316273737035</v>
+        <v>-0.3332622562625545</v>
       </c>
       <c r="D2">
-        <v>0.8131265960079506</v>
+        <v>0.7420916008870835</v>
       </c>
       <c r="E2">
         <v>0.8793984106784559</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.29417704915346</v>
+        <v>-1.767954405700968</v>
       </c>
       <c r="D3">
-        <v>0.1957822489984651</v>
+        <v>0.09093616888524236</v>
       </c>
       <c r="E3">
         <v>0.8793984106784559</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6478604403656102</v>
+        <v>-0.5626075066492342</v>
       </c>
       <c r="D4">
-        <v>0.5171637973613132</v>
+        <v>0.5793907117962123</v>
       </c>
       <c r="E4">
         <v>0.8793984106784559</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.743843017630626</v>
+        <v>-1.962678472679351</v>
       </c>
       <c r="D5">
-        <v>0.0813694816867816</v>
+        <v>0.06245213556464368</v>
       </c>
       <c r="E5">
         <v>0.8793984106784559</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.9317924452759825</v>
+        <v>-1.223936159792576</v>
       </c>
       <c r="D6">
-        <v>0.3515777623225655</v>
+        <v>0.2339229688961586</v>
       </c>
       <c r="E6">
         <v>0.8904479140740519</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.3157144684064215</v>
+        <v>-0.3069587242118178</v>
       </c>
       <c r="D7">
-        <v>0.7522584820003893</v>
+        <v>0.7617614259192389</v>
       </c>
       <c r="E7">
         <v>0.8904479140740519</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.143612574056124</v>
+        <v>-1.167274145846048</v>
       </c>
       <c r="D8">
-        <v>0.2529473683567858</v>
+        <v>0.2555960509960471</v>
       </c>
       <c r="E8">
         <v>0.8904479140740519</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6678757144974417</v>
+        <v>0.6883565558837057</v>
       </c>
       <c r="D9">
-        <v>0.5043047223026846</v>
+        <v>0.4984232261285846</v>
       </c>
       <c r="E9">
         <v>0.9581046664532195</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.09288860662769786</v>
+        <v>0.0949911637063853</v>
       </c>
       <c r="D10">
-        <v>0.9260031391721213</v>
+        <v>0.9251817585945477</v>
       </c>
       <c r="E10">
         <v>0.9581046664532195</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7374648378733081</v>
+        <v>-0.8141616532026933</v>
       </c>
       <c r="D11">
-        <v>0.4609427641660351</v>
+        <v>0.4242777250696776</v>
       </c>
       <c r="E11">
         <v>0.909284225476254</v>
